--- a/Results/charts.xlsx
+++ b/Results/charts.xlsx
@@ -2936,13 +2936,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Decision Trees</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Decision Trees</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6346,15 +6341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6383,8 +6378,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6731,7 +6726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="X23" sqref="X23:Z55"/>
     </sheetView>
   </sheetViews>
